--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.588528333333334</v>
+        <v>5.430645666666667</v>
       </c>
       <c r="H2">
-        <v>10.765585</v>
+        <v>16.291937</v>
       </c>
       <c r="I2">
-        <v>0.2228086311352606</v>
+        <v>0.2624934017906914</v>
       </c>
       <c r="J2">
-        <v>0.2228086311352606</v>
+        <v>0.2624934017906914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07707233333333334</v>
+        <v>1.079670666666667</v>
       </c>
       <c r="N2">
-        <v>0.231217</v>
+        <v>3.239012</v>
       </c>
       <c r="O2">
-        <v>0.05620349029126922</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="P2">
-        <v>0.05620349029126921</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="Q2">
-        <v>0.2765762518827778</v>
+        <v>5.863308827360445</v>
       </c>
       <c r="R2">
-        <v>2.489186266945</v>
+        <v>52.769779446244</v>
       </c>
       <c r="S2">
-        <v>0.0125226227368216</v>
+        <v>0.1557985692805742</v>
       </c>
       <c r="T2">
-        <v>0.0125226227368216</v>
+        <v>0.1557985692805742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.588528333333334</v>
+        <v>5.430645666666667</v>
       </c>
       <c r="H3">
-        <v>10.765585</v>
+        <v>16.291937</v>
       </c>
       <c r="I3">
-        <v>0.2228086311352606</v>
+        <v>0.2624934017906914</v>
       </c>
       <c r="J3">
-        <v>0.2228086311352606</v>
+        <v>0.2624934017906914</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.079670666666667</v>
+        <v>0.739386</v>
       </c>
       <c r="N3">
-        <v>3.239012</v>
+        <v>2.218158</v>
       </c>
       <c r="O3">
-        <v>0.7873286976965556</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="P3">
-        <v>0.7873286976965554</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="Q3">
-        <v>3.874428778002223</v>
+        <v>4.015343376894</v>
       </c>
       <c r="R3">
-        <v>34.86985900202</v>
+        <v>36.138090392046</v>
       </c>
       <c r="S3">
-        <v>0.175423629387277</v>
+        <v>0.1066948325101172</v>
       </c>
       <c r="T3">
-        <v>0.1754236293872769</v>
+        <v>0.1066948325101172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.588528333333334</v>
+        <v>4.700865</v>
       </c>
       <c r="H4">
-        <v>10.765585</v>
+        <v>14.102595</v>
       </c>
       <c r="I4">
-        <v>0.2228086311352606</v>
+        <v>0.227219030838776</v>
       </c>
       <c r="J4">
-        <v>0.2228086311352606</v>
+        <v>0.227219030838776</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2145656666666667</v>
+        <v>1.079670666666667</v>
       </c>
       <c r="N4">
-        <v>0.6436970000000001</v>
+        <v>3.239012</v>
       </c>
       <c r="O4">
-        <v>0.1564678120121752</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="P4">
-        <v>0.1564678120121752</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="Q4">
-        <v>0.7699749741938891</v>
+        <v>5.07538604846</v>
       </c>
       <c r="R4">
-        <v>6.929774767745002</v>
+        <v>45.67847443614</v>
       </c>
       <c r="S4">
-        <v>0.03486237901116206</v>
+        <v>0.1348620562517139</v>
       </c>
       <c r="T4">
-        <v>0.03486237901116205</v>
+        <v>0.1348620562517139</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>14.102595</v>
       </c>
       <c r="I5">
-        <v>0.2918726560056857</v>
+        <v>0.227219030838776</v>
       </c>
       <c r="J5">
-        <v>0.2918726560056857</v>
+        <v>0.227219030838776</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07707233333333334</v>
+        <v>0.739386</v>
       </c>
       <c r="N5">
-        <v>0.231217</v>
+        <v>2.218158</v>
       </c>
       <c r="O5">
-        <v>0.05620349029126922</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="P5">
-        <v>0.05620349029126921</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="Q5">
-        <v>0.362306634235</v>
+        <v>3.47575376889</v>
       </c>
       <c r="R5">
-        <v>3.260759708115</v>
+        <v>31.28178392001</v>
       </c>
       <c r="S5">
-        <v>0.01640426198810252</v>
+        <v>0.09235697458706212</v>
       </c>
       <c r="T5">
-        <v>0.01640426198810252</v>
+        <v>0.09235697458706212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.700865</v>
+        <v>3.770857666666667</v>
       </c>
       <c r="H6">
-        <v>14.102595</v>
+        <v>11.312573</v>
       </c>
       <c r="I6">
-        <v>0.2918726560056857</v>
+        <v>0.1822665880536812</v>
       </c>
       <c r="J6">
-        <v>0.2918726560056857</v>
+        <v>0.1822665880536812</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,27 +809,27 @@
         <v>3.239012</v>
       </c>
       <c r="O6">
-        <v>0.7873286976965556</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="P6">
-        <v>0.7873286976965554</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="Q6">
-        <v>5.07538604846</v>
+        <v>4.071284410875111</v>
       </c>
       <c r="R6">
-        <v>45.67847443614</v>
+        <v>36.641559697876</v>
       </c>
       <c r="S6">
-        <v>0.2297997181461913</v>
+        <v>0.1081812855206875</v>
       </c>
       <c r="T6">
-        <v>0.2297997181461913</v>
+        <v>0.1081812855206875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.700865</v>
+        <v>3.770857666666667</v>
       </c>
       <c r="H7">
-        <v>14.102595</v>
+        <v>11.312573</v>
       </c>
       <c r="I7">
-        <v>0.2918726560056857</v>
+        <v>0.1822665880536812</v>
       </c>
       <c r="J7">
-        <v>0.2918726560056857</v>
+        <v>0.1822665880536812</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2145656666666667</v>
+        <v>0.739386</v>
       </c>
       <c r="N7">
-        <v>0.6436970000000001</v>
+        <v>2.218158</v>
       </c>
       <c r="O7">
-        <v>0.1564678120121752</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="P7">
-        <v>0.1564678120121752</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="Q7">
-        <v>1.008644232635</v>
+        <v>2.788119366726</v>
       </c>
       <c r="R7">
-        <v>9.077798093715002</v>
+        <v>25.093074300534</v>
       </c>
       <c r="S7">
-        <v>0.04566867587139193</v>
+        <v>0.07408530253299375</v>
       </c>
       <c r="T7">
-        <v>0.04566867587139193</v>
+        <v>0.07408530253299375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.564394333333333</v>
+        <v>6.786325666666667</v>
       </c>
       <c r="H8">
-        <v>4.693182999999999</v>
+        <v>20.358977</v>
       </c>
       <c r="I8">
-        <v>0.09713189574902575</v>
+        <v>0.3280209793168514</v>
       </c>
       <c r="J8">
-        <v>0.09713189574902575</v>
+        <v>0.3280209793168514</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07707233333333334</v>
+        <v>1.079670666666667</v>
       </c>
       <c r="N8">
-        <v>0.231217</v>
+        <v>3.239012</v>
       </c>
       <c r="O8">
-        <v>0.05620349029126922</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="P8">
-        <v>0.05620349029126921</v>
+        <v>0.5935332782376214</v>
       </c>
       <c r="Q8">
-        <v>0.1205715215234444</v>
+        <v>7.326996756747111</v>
       </c>
       <c r="R8">
-        <v>1.085143693711</v>
+        <v>65.94297081072401</v>
       </c>
       <c r="S8">
-        <v>0.005459151559702943</v>
+        <v>0.1946913671846458</v>
       </c>
       <c r="T8">
-        <v>0.005459151559702943</v>
+        <v>0.1946913671846458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,294 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.564394333333333</v>
+        <v>6.786325666666667</v>
       </c>
       <c r="H9">
-        <v>4.693182999999999</v>
+        <v>20.358977</v>
       </c>
       <c r="I9">
-        <v>0.09713189574902575</v>
+        <v>0.3280209793168514</v>
       </c>
       <c r="J9">
-        <v>0.09713189574902575</v>
+        <v>0.3280209793168514</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.079670666666667</v>
+        <v>0.739386</v>
       </c>
       <c r="N9">
-        <v>3.239012</v>
+        <v>2.218158</v>
       </c>
       <c r="O9">
-        <v>0.7873286976965556</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="P9">
-        <v>0.7873286976965554</v>
+        <v>0.4064667217623787</v>
       </c>
       <c r="Q9">
-        <v>1.689030672799555</v>
+        <v>5.017714189374001</v>
       </c>
       <c r="R9">
-        <v>15.201276055196</v>
+        <v>45.159427704366</v>
       </c>
       <c r="S9">
-        <v>0.07647472898487805</v>
+        <v>0.1333296121322056</v>
       </c>
       <c r="T9">
-        <v>0.07647472898487803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.564394333333333</v>
-      </c>
-      <c r="H10">
-        <v>4.693182999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.09713189574902575</v>
-      </c>
-      <c r="J10">
-        <v>0.09713189574902575</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.2145656666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.6436970000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.1564678120121752</v>
-      </c>
-      <c r="P10">
-        <v>0.1564678120121752</v>
-      </c>
-      <c r="Q10">
-        <v>0.3356653130612222</v>
-      </c>
-      <c r="R10">
-        <v>3.020987817551</v>
-      </c>
-      <c r="S10">
-        <v>0.01519801520444477</v>
-      </c>
-      <c r="T10">
-        <v>0.01519801520444477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.252089000000001</v>
-      </c>
-      <c r="H11">
-        <v>18.756267</v>
-      </c>
-      <c r="I11">
-        <v>0.388186817110028</v>
-      </c>
-      <c r="J11">
-        <v>0.3881868171100279</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.07707233333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.231217</v>
-      </c>
-      <c r="O11">
-        <v>0.05620349029126922</v>
-      </c>
-      <c r="P11">
-        <v>0.05620349029126921</v>
-      </c>
-      <c r="Q11">
-        <v>0.4818630874376668</v>
-      </c>
-      <c r="R11">
-        <v>4.336767786939</v>
-      </c>
-      <c r="S11">
-        <v>0.02181745400664216</v>
-      </c>
-      <c r="T11">
-        <v>0.02181745400664215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>6.252089000000001</v>
-      </c>
-      <c r="H12">
-        <v>18.756267</v>
-      </c>
-      <c r="I12">
-        <v>0.388186817110028</v>
-      </c>
-      <c r="J12">
-        <v>0.3881868171100279</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>1.079670666666667</v>
-      </c>
-      <c r="N12">
-        <v>3.239012</v>
-      </c>
-      <c r="O12">
-        <v>0.7873286976965556</v>
-      </c>
-      <c r="P12">
-        <v>0.7873286976965554</v>
-      </c>
-      <c r="Q12">
-        <v>6.750197098689334</v>
-      </c>
-      <c r="R12">
-        <v>60.751773888204</v>
-      </c>
-      <c r="S12">
-        <v>0.3056306211782093</v>
-      </c>
-      <c r="T12">
-        <v>0.3056306211782093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.252089000000001</v>
-      </c>
-      <c r="H13">
-        <v>18.756267</v>
-      </c>
-      <c r="I13">
-        <v>0.388186817110028</v>
-      </c>
-      <c r="J13">
-        <v>0.3881868171100279</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2145656666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.6436970000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.1564678120121752</v>
-      </c>
-      <c r="P13">
-        <v>0.1564678120121752</v>
-      </c>
-      <c r="Q13">
-        <v>1.341483644344334</v>
-      </c>
-      <c r="R13">
-        <v>12.073352799099</v>
-      </c>
-      <c r="S13">
-        <v>0.06073874192517652</v>
-      </c>
-      <c r="T13">
-        <v>0.0607387419251765</v>
+        <v>0.1333296121322056</v>
       </c>
     </row>
   </sheetData>
